--- a/Documentation/Plan de pruebas MielesSAS.xlsx
+++ b/Documentation/Plan de pruebas MielesSAS.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Felipe\Documents\Karate Automation\RetoQAAutomation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan.fsilva\IdeaProjects\RetoQAAutomation\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3902BE67-AB7A-4341-ACB2-094B2D5D87D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7712F922-E1A9-45A4-9D45-424D7E4FCA47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{7011E6BA-1892-46C0-AB29-948751CC6DB9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{7011E6BA-1892-46C0-AB29-948751CC6DB9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan de Pruebas" sheetId="1" r:id="rId1"/>
-    <sheet name="Casos de prueba" sheetId="2" r:id="rId2"/>
+    <sheet name="Test Plan" sheetId="1" r:id="rId1"/>
+    <sheet name="Test Cases" sheetId="2" r:id="rId2"/>
     <sheet name="Bugs" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_Hlk92469893" localSheetId="0">'Plan de Pruebas'!$A$24</definedName>
-    <definedName name="_Hlk95751041" localSheetId="0">'Plan de Pruebas'!$A$4</definedName>
-    <definedName name="_Hlk95751132" localSheetId="0">'Plan de Pruebas'!#REF!</definedName>
-    <definedName name="_Hlk95751157" localSheetId="0">'Plan de Pruebas'!#REF!</definedName>
+    <definedName name="_Hlk92469893" localSheetId="0">'Test Plan'!$A$24</definedName>
+    <definedName name="_Hlk95751041" localSheetId="0">'Test Plan'!$A$4</definedName>
+    <definedName name="_Hlk95751132" localSheetId="0">'Test Plan'!#REF!</definedName>
+    <definedName name="_Hlk95751157" localSheetId="0">'Test Plan'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,286 +43,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="102">
-  <si>
-    <t>SISTEMA:</t>
-  </si>
-  <si>
-    <t>OBJETIVO DEL DOCUMENTO</t>
-  </si>
-  <si>
-    <t>Resumen de la funcionalidad:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="106">
   <si>
     <t>ALCANCE</t>
   </si>
   <si>
-    <t xml:space="preserve">Riesgos:   </t>
-  </si>
-  <si>
-    <t>* Inestabilidad en el ambiente de pruebas.</t>
-  </si>
-  <si>
-    <t>* Disponibilidad de la red.</t>
-  </si>
-  <si>
-    <t>* Disponibilidad de los servicios.</t>
-  </si>
-  <si>
-    <t>Fuera del alcance:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Validaciones que no se encuentren descritas dentro de los documentos de Especificación.                                                                                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Modificaciones no descritas en este documento.       </t>
-  </si>
-  <si>
-    <r>
-      <t>Nota</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>: El alcance definido en esta prueba se realiza teniendo en cuenta la información entregada en casos de uso, especificaciones suplementarias, FSP, CHR, actas de entrega de desarrollo, y pruebas unitarias. No están en el alcance de esta prueba, las funcionalidades no descritas o ya existentes.</t>
-    </r>
-  </si>
-  <si>
-    <t>ESTRATEGIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El objetivo de este plan de pruebas es verificar el correcto funcionamiento del backend de la aplicación de usuarios para la empresa Mieles S.AS.
-</t>
-  </si>
-  <si>
-    <t>Este plan de pruebas cubrirá las siguientes áreas del backend:</t>
-  </si>
-  <si>
-    <t>Funcionalidad</t>
-  </si>
-  <si>
-    <t>Manejo de errores</t>
-  </si>
-  <si>
-    <t>1. Identificación de Requisitos y Funcionalidades</t>
-  </si>
-  <si>
-    <t>Comprender los requisitos del backend y las funcionalidades que se deben probar.(post,get,put,delete)</t>
-  </si>
-  <si>
-    <t>Identificar los endpoints API que deben ser probados.</t>
-  </si>
-  <si>
-    <t>alcance:</t>
-  </si>
-  <si>
-    <t>• No se realizaran pruebas de performance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• No se realizara pruebas de seguridad </t>
-  </si>
-  <si>
-    <t>2. Preparación del Entorno de Pruebas</t>
-  </si>
-  <si>
-    <t>Instalar y configurar Karate en el entorno de desarrollo.</t>
-  </si>
-  <si>
-    <t>3. Desarrollo de Casos de Prueba</t>
-  </si>
-  <si>
-    <t>Escribir los casos de prueba utilizando la sintaxis de Gherkin para describir el comportamiento esperado del backend.</t>
-  </si>
-  <si>
-    <t>Utilizar las capacidades de Karate para realizar solicitudes HTTP a los endpoints API y validar las respuestas recibidas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incluir escenarios de prueba para cubrir diferentes casos, incluyendo casos de éxito, casos de error </t>
-  </si>
-  <si>
-    <t>Verificar que todos los casos de prueba se ejecuten correctamente y que no haya errores de validación.</t>
-  </si>
-  <si>
-    <t>Backend de la aplicación Usuarios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automatizar el backend que tiene la empresa Mieles SAS para su gestion de usuarios </t>
-  </si>
-  <si>
-    <t>5. Generación de Reportes</t>
-  </si>
-  <si>
-    <t>4. Ejecución de Pruebas</t>
-  </si>
-  <si>
-    <t>Generar reportes de prueba detallados utilizando las capacidades de generación de reportes de Karate.</t>
-  </si>
-  <si>
-    <t>Utilizar los reportes para identificar casos de prueba fallidos y para comunicar los resultados de las pruebas al equipo de desarrollo y otras partes interesadas.</t>
-  </si>
-  <si>
-    <t>Casos de Prueba</t>
-  </si>
-  <si>
-    <t>Nombre del Proyecto:</t>
-  </si>
-  <si>
     <t>Responsable:</t>
   </si>
   <si>
-    <t>Fecha de Creación:</t>
-  </si>
-  <si>
-    <t>Descripción Caso de Prueba</t>
-  </si>
-  <si>
-    <t>Precondición &lt;NA / precondición&gt;</t>
-  </si>
-  <si>
-    <t>Prioridad &lt;Alta, Media, Baja&gt;</t>
-  </si>
-  <si>
-    <t>No. Paso</t>
-  </si>
-  <si>
-    <t>Descripción del Paso</t>
-  </si>
-  <si>
-    <t>Resultado Esperado</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
-    <t xml:space="preserve">Nombre Caso de Prueba </t>
-  </si>
-  <si>
     <t>Juan Felipe Silva</t>
   </si>
   <si>
     <t xml:space="preserve">Automatizacion Backend modulo Usuarios </t>
   </si>
   <si>
-    <t xml:space="preserve">Crear usuario nuevo </t>
-  </si>
-  <si>
-    <t>el servicio de https://reqres.in/api/users deber permitir la creacion de usuario nuevos generandole un ID unico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">usuario no registrado previamente </t>
-  </si>
-  <si>
-    <t>enviar peticion de tipo post al servicio https://reqres.in/api/users</t>
-  </si>
-  <si>
-    <t>Validar http code sea 201</t>
-  </si>
-  <si>
-    <t>el servicio debera permitir enviar un nombre nuevo y un trabajo nuevo dentro del cuerpo de la peticion</t>
-  </si>
-  <si>
-    <t>el servicio debera responder con un codigo htpp 201</t>
-  </si>
-  <si>
-    <t>se debera validar que la estrucutrua del response sea correcta de acuerdo a la especificacion del swagger</t>
-  </si>
-  <si>
-    <t>usuario creado exitosamente y http code= 201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validar estrucutrua de response </t>
-  </si>
-  <si>
-    <t>el servicio debera responder con los campos   "name", "job", "id","createdAt", todos de tipo string</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Validacion de response en la creacion de usuario</t>
-  </si>
-  <si>
-    <t>Consulta de usuario existente</t>
-  </si>
-  <si>
-    <t>el servicio https://reqres.in/api/users/2 debera retornar la informacion del Id enviado como parametro de consulta</t>
-  </si>
-  <si>
-    <t>enviar peticion de tipo get al servicio https://reqres.in/api/users/ID</t>
-  </si>
-  <si>
-    <t>el servicio debera permitir consultar usuario por medio de su ID</t>
-  </si>
-  <si>
-    <t>Validar http code sea 200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">el servicio debera retornar con un http code = 200 y la informacion del cliente como nombre apellido email id avatar dentro de un objeto llamado data </t>
-  </si>
-  <si>
-    <t>el servicio https://reqres.in/api/users/ID debera retonar con el nombre, trabajo y fecha de actualizacion del ID asociado a ese usuario</t>
-  </si>
-  <si>
-    <t>enviar peticion de tipo put al servicio https://reqres.in/api/users/ID</t>
-  </si>
-  <si>
-    <t>el servicio debera permitir actualizar los campos nombre y trabajo con los nuevos valores</t>
-  </si>
-  <si>
-    <t>el servicio debera retornar con un http code = 200 y la informacion del cliente como nombre trabajo y fecha de actualizacion</t>
-  </si>
-  <si>
-    <t>Actualizacion de usuario ya existente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eliminacion de usuario </t>
-  </si>
-  <si>
-    <t>el servicio https://reqres.in/api/users/2 debera eliminar de la lista el usuario con que tenga el ID enviado como parametro</t>
-  </si>
-  <si>
-    <t>Validar http code sea 204</t>
-  </si>
-  <si>
-    <t>el servicio debera retornar con un http code = 204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actualizacion de usuario no existente </t>
-  </si>
-  <si>
-    <t xml:space="preserve">el servicio debera retornar con un error mencionando que el usuario no existe </t>
-  </si>
-  <si>
-    <t>Validar http code sea 404</t>
-  </si>
-  <si>
-    <t>el servicio debera retornar con un http code = 404 not found</t>
-  </si>
-  <si>
     <t xml:space="preserve">ID </t>
   </si>
   <si>
-    <t xml:space="preserve">Titulo </t>
-  </si>
-  <si>
     <t>Descripcion</t>
   </si>
   <si>
     <t>Data</t>
-  </si>
-  <si>
-    <t>Pasos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Permite actualizar usuario que no existe dentro de la lista </t>
-  </si>
-  <si>
-    <t>el servicio https://reqres.in/api/users/ID permite actualizar usuario que no estan registrados en la lista previamente, se esperaba un codigo http= 404 not found sin embargo se obtuvo un http code = 200</t>
   </si>
   <si>
     <t>ID=100000
@@ -330,15 +74,6 @@
     "job": "QA Automation"</t>
   </si>
   <si>
-    <t>enviar peticion de tipo put al endpoint https://reqres.in/api/users/100000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diligencias los campos que se deberan actualizar </t>
-  </si>
-  <si>
-    <t>validar response 404</t>
-  </si>
-  <si>
     <t>estatus</t>
   </si>
   <si>
@@ -348,22 +83,287 @@
     <t>Fallido</t>
   </si>
   <si>
-    <t>Consulta de todos los usuarios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">el servicio https://reqres.in/api/unknown debera retornar una lista de clientes </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usuarios previamente creados </t>
-  </si>
-  <si>
-    <t>el servicio debera permitir consultar la totalidad de usuarios</t>
-  </si>
-  <si>
-    <t>enviar peticion de tipo get al servicio https://reqres.in/api/unknown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">el servicio debera retornar con un http code = 200 y la informacion de los clientes como nombre apellido email id avatar dentro de un objeto llamado data </t>
+    <t>Application backend Users</t>
+  </si>
+  <si>
+    <t>The objective of this test plan is to verify the correct functioning of the backend of the user application for the company Mieles S.AS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automate the backend of the company Mieles SAS for its user management. </t>
+  </si>
+  <si>
+    <t>OBJECTIVE OF THE DOCUMENT</t>
+  </si>
+  <si>
+    <t>SYSTEM:</t>
+  </si>
+  <si>
+    <t>Summary of functionality:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scope:
+</t>
+  </si>
+  <si>
+    <t>Out of reach:</t>
+  </si>
+  <si>
+    <t>Note: The scope defined in this test is made taking into account the information provided in use cases, supplementary specifications, FSP, CHR, development handover minutes, and unit tests. The scope of this test does not include the following functionalities no descritas o ya existentes.</t>
+  </si>
+  <si>
+    <t>This test plan will cover the following backend areas:</t>
+  </si>
+  <si>
+    <t>Functionality</t>
+  </si>
+  <si>
+    <t>Error handling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Risk:   </t>
+  </si>
+  <si>
+    <t>* Instability in the test environment.</t>
+  </si>
+  <si>
+    <t>* Network availability.</t>
+  </si>
+  <si>
+    <t>* Availability of services.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Validations not described within the Specification documents.                                                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Modifications not described in this document.       </t>
+  </si>
+  <si>
+    <t>• No performance tests shall be performed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• No security testing shall be performed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STRATEGY	</t>
+  </si>
+  <si>
+    <t>Test Cases</t>
+  </si>
+  <si>
+    <t>Project name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Identifying Requirements and Functionalities	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Test Environment Preparation	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.Test Case Development	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Test Execution	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Report Generation	</t>
+  </si>
+  <si>
+    <t>Understand the backend requirements and functionalities to be tested (post,get,put,delete).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identify the API endpoints to be tested.	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Install and configure Karate in the development environment.	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write test cases using Gherkin syntax to describe the expected behaviour of the backend.	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use Karate's capabilities to make HTTP requests to API endpoints and validate the responses received.	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Include test scenarios to cover different test cases, including success cases, error cases, and test cases for the backend. 	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that all test cases are executed correctly and that there are no validation errors.	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generate detailed test reports using Karate's reporting capabilities.	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use the reports to identify failed test cases and to communicate test results to the development team and other stakeholders.	</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t>the service https://reqres.in/api/users/ID allows to update users that are not previously registered in the list, a code http= 404 not found was expected, however a http code = 200 was obtained.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allows to update user that does not exist in the list. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the fields to be updated </t>
+  </si>
+  <si>
+    <t>send put request to the endpoint https://reqres.in/api/users/100000000</t>
+  </si>
+  <si>
+    <t>validate response 404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create new user </t>
+  </si>
+  <si>
+    <t>Response validation on user creation</t>
+  </si>
+  <si>
+    <t>Query existing user</t>
+  </si>
+  <si>
+    <t>Update existing user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete user </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update non-existing user </t>
+  </si>
+  <si>
+    <t>Query all users</t>
+  </si>
+  <si>
+    <t>the https://reqres.in/api/users service should allow the creation of new users by generating a unique user ID.</t>
+  </si>
+  <si>
+    <t>validate that the structure of the response is correct according to the swagger specification.</t>
+  </si>
+  <si>
+    <t>the service https://reqres.in/api/users/2 shall return the ID information sent as query parameter</t>
+  </si>
+  <si>
+    <t>the service https://reqres.in/api/users/ID shall return the name, job and date of update of the ID associated with that user</t>
+  </si>
+  <si>
+    <t>the https://reqres.in/api/users/2 service shall remove from the list the user with the ID sent as a parameter</t>
+  </si>
+  <si>
+    <t>the https://reqres.in/api/users/ID service shall retune with the name, job and update date of the ID associated with that user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the service https://reqres.in/api/unknown shall return a list of clients. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">previously unregistered user </t>
+  </si>
+  <si>
+    <t>user successfully created and http code= 201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Previously created users </t>
+  </si>
+  <si>
+    <t>send post type request to the service https://reqres.in/api/users</t>
+  </si>
+  <si>
+    <t>send post type request to service https://reqres.in/api/users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate response structure </t>
+  </si>
+  <si>
+    <t>send get type request to https://reqres.in/api/users/ID service</t>
+  </si>
+  <si>
+    <t>Validate http code is 200</t>
+  </si>
+  <si>
+    <t>send put type request to https://reqres.in/api/users/ID service</t>
+  </si>
+  <si>
+    <t>Validate http code sea 200</t>
+  </si>
+  <si>
+    <t>Validate http code is 204</t>
+  </si>
+  <si>
+    <t>Validate http code is 404</t>
+  </si>
+  <si>
+    <t>send get request to https://reqres.in/api/unknown service</t>
+  </si>
+  <si>
+    <t>the service shall allow to send a new name and a new job within the request body</t>
+  </si>
+  <si>
+    <t>the service shall respond with an htpp code 201</t>
+  </si>
+  <si>
+    <t>the service shall respond with the fields "name", "job", "id", "createdAt", all of type string</t>
+  </si>
+  <si>
+    <t>the service shall allow querying the user by means of the user ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the service shall return with a http code = 200 and the client information such as first name last name email id avatar inside an object called data </t>
+  </si>
+  <si>
+    <t>the service shall allow to update the fields name and job with the new values</t>
+  </si>
+  <si>
+    <t>the service shall return with an http code = 200 and the client information such as job name and update date</t>
+  </si>
+  <si>
+    <t>the service shall return with an http code = 204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the service should return with an error mentioning that the user does not exist </t>
+  </si>
+  <si>
+    <t>the service should return with an http code = 404 not found</t>
+  </si>
+  <si>
+    <t>the service should allow querying the total number of users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the service should return with an http code = 200 and the clients information as first name last name email id avatar inside an object called data </t>
+  </si>
+  <si>
+    <t>Validate http code is 201</t>
+  </si>
+  <si>
+    <t>Date of creation:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name Test Case </t>
+  </si>
+  <si>
+    <t>Description Test Case</t>
+  </si>
+  <si>
+    <t>Precondition &lt;NA / precondition&gt;.</t>
+  </si>
+  <si>
+    <t>Priority &lt;High, Medium, Low&gt;.</t>
+  </si>
+  <si>
+    <t>No. Step</t>
+  </si>
+  <si>
+    <t>Description of the Pass</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -1564,6 +1564,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1576,114 +1633,49 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="26" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="26" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="26" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1691,6 +1683,12 @@
     <xf numFmtId="0" fontId="33" fillId="26" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="72">
@@ -2101,11 +2099,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1135A065-BB42-4482-B10A-1F0DBC403A69}">
   <dimension ref="A3:B41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="119.28515625" customWidth="1"/>
@@ -2114,252 +2112,252 @@
     <row r="3" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="4" spans="1:2" ht="15.75" thickBot="1">
       <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30" customHeight="1" thickBot="1">
+      <c r="A5" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="68"/>
+    </row>
+    <row r="6" spans="1:2" ht="228.75" customHeight="1" thickBot="1">
+      <c r="A6" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="70"/>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A8" s="62"/>
+      <c r="B8" s="62"/>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A9" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B9" s="64"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="84" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="60"/>
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="60"/>
+      <c r="B12" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="60"/>
+      <c r="B13" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="60"/>
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="60"/>
+      <c r="B15" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="60"/>
+      <c r="B16" s="5"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="60"/>
+      <c r="B17" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="60"/>
+      <c r="B18" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A19" s="71"/>
+      <c r="B19" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="60"/>
+      <c r="B21" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="60"/>
+      <c r="B22" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30" customHeight="1" thickBot="1">
-      <c r="A5" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="49"/>
-    </row>
-    <row r="6" spans="1:2" ht="228.75" customHeight="1" thickBot="1">
-      <c r="A6" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="51"/>
-    </row>
-    <row r="7" spans="1:2" ht="30.75" thickBot="1">
-      <c r="A7" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="3" t="s">
+    <row r="23" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A23" s="60"/>
+      <c r="B23" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A8" s="52"/>
-      <c r="B8" s="52"/>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A9" s="53" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="54"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="55" t="s">
+    <row r="24" spans="1:2" ht="33.75" customHeight="1" thickBot="1">
+      <c r="A24" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="56"/>
-      <c r="B11" s="5"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="56"/>
-      <c r="B12" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="56"/>
-      <c r="B13" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="56"/>
-      <c r="B14" s="5"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="56"/>
-      <c r="B15" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="56"/>
-      <c r="B16" s="5"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="56"/>
-      <c r="B17" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="56"/>
-      <c r="B18" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A19" s="57"/>
-      <c r="B19" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="56"/>
-      <c r="B21" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="56"/>
-      <c r="B22" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A23" s="56"/>
-      <c r="B23" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A24" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="61"/>
+      <c r="B24" s="49"/>
     </row>
     <row r="25" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A25" s="52"/>
-      <c r="B25" s="52"/>
+      <c r="A25" s="62"/>
+      <c r="B25" s="62"/>
     </row>
     <row r="26" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A26" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="54"/>
+      <c r="A26" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="64"/>
     </row>
     <row r="27" spans="1:2" ht="15" customHeight="1">
-      <c r="A27" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="63"/>
+      <c r="A27" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="66"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="8" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B28" s="9"/>
     </row>
     <row r="29" spans="1:2" ht="15" customHeight="1">
       <c r="A29" s="8" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B29" s="9"/>
     </row>
     <row r="30" spans="1:2" ht="15" customHeight="1">
-      <c r="A30" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="59"/>
+      <c r="A30" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="61"/>
     </row>
     <row r="31" spans="1:2" ht="15" customHeight="1">
-      <c r="A31" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="65"/>
+      <c r="A31" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="55"/>
     </row>
     <row r="32" spans="1:2" ht="15" customHeight="1">
-      <c r="A32" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="66"/>
+      <c r="A32" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="58"/>
     </row>
     <row r="33" spans="1:2" ht="15" customHeight="1">
-      <c r="A33" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="65"/>
+      <c r="A33" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="55"/>
     </row>
     <row r="34" spans="1:2" ht="15" customHeight="1">
-      <c r="A34" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="65"/>
+      <c r="A34" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="55"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="64" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" s="65"/>
+      <c r="A35" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="55"/>
     </row>
     <row r="36" spans="1:2" ht="15" customHeight="1">
-      <c r="A36" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" s="70"/>
+      <c r="A36" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="53"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="71" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" s="65"/>
+      <c r="A37" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="55"/>
     </row>
     <row r="38" spans="1:2" ht="15" customHeight="1">
-      <c r="A38" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="B38" s="70"/>
+      <c r="A38" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="53"/>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="64" t="s">
-        <v>34</v>
-      </c>
-      <c r="B39" s="65"/>
+      <c r="A39" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="55"/>
     </row>
     <row r="40" spans="1:2" ht="30" customHeight="1" thickBot="1">
-      <c r="A40" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="B40" s="68"/>
+      <c r="A40" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="51"/>
     </row>
     <row r="41" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A41" s="60"/>
-      <c r="B41" s="61"/>
+      <c r="A41" s="48"/>
+      <c r="B41" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:A19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A35:B35"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2370,11 +2368,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DD71E56-4555-4687-A855-899FAC64134F}">
   <dimension ref="A2:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.42578125" customWidth="1"/>
     <col min="2" max="2" width="39.5703125" customWidth="1"/>
@@ -2388,7 +2386,7 @@
   <sheetData>
     <row r="2" spans="1:8">
       <c r="A2" s="27" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -2410,10 +2408,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="24" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="14"/>
@@ -2424,10 +2422,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="24" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="14"/>
@@ -2438,7 +2436,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="24" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="B6" s="26">
         <v>45420</v>
@@ -2460,278 +2458,278 @@
       <c r="G7" s="14"/>
       <c r="H7" s="11"/>
     </row>
-    <row r="8" spans="1:8" ht="33.75">
+    <row r="8" spans="1:8" ht="45">
       <c r="A8" s="30" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="42.75" customHeight="1">
-      <c r="A9" s="84" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="85" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="85" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="83" t="s">
-        <v>61</v>
+      <c r="A9" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="83" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="80" t="s">
+        <v>105</v>
       </c>
       <c r="E9" s="31">
         <v>1</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="G9" s="33" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="75"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="73"/>
+      <c r="A10" s="78"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="81"/>
       <c r="E10" s="28">
         <v>2</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="42.75" customHeight="1">
-      <c r="A11" s="74" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="76" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="76" t="s">
+      <c r="A11" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="72" t="s">
-        <v>46</v>
+      <c r="B11" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="72" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="74" t="s">
+        <v>2</v>
       </c>
       <c r="E11" s="28">
         <v>1</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="28.5">
-      <c r="A12" s="75"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="73"/>
+      <c r="A12" s="78"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="81"/>
       <c r="E12" s="28">
         <v>2</v>
       </c>
       <c r="F12" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="42.75" customHeight="1">
+      <c r="A13" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="42.75" customHeight="1">
-      <c r="A13" s="74" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="76" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="76" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="72" t="s">
-        <v>61</v>
+      <c r="B13" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="72" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="74" t="s">
+        <v>105</v>
       </c>
       <c r="E13" s="28">
         <v>1</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="42.75">
-      <c r="A14" s="75"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="73"/>
+      <c r="A14" s="78"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="81"/>
       <c r="E14" s="28">
         <v>2</v>
       </c>
       <c r="F14" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="57" customHeight="1">
+      <c r="A15" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="G14" s="34" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="57" customHeight="1">
-      <c r="A15" s="74" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="76" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="72" t="s">
-        <v>61</v>
+      <c r="C15" s="72" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="74" t="s">
+        <v>105</v>
       </c>
       <c r="E15" s="28">
         <v>1</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="42.75">
-      <c r="A16" s="75"/>
-      <c r="B16" s="77"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="73"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="28.5">
+      <c r="A16" s="78"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="81"/>
       <c r="E16" s="28">
         <v>2</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="G16" s="34" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="42.75">
       <c r="A17" s="35" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="E17" s="28">
         <v>1</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G17" s="34" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="28.5" customHeight="1">
-      <c r="A18" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="76" t="s">
+      <c r="A18" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="79" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="72" t="s">
-        <v>46</v>
+      <c r="C18" s="72" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="74" t="s">
+        <v>2</v>
       </c>
       <c r="E18" s="28">
         <v>1</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="81"/>
-      <c r="B19" s="78"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="82"/>
+      <c r="A19" s="77"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="75"/>
       <c r="E19" s="36">
         <v>2</v>
       </c>
       <c r="F19" s="37" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G19" s="38" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="33" customHeight="1">
-      <c r="A20" s="74" t="s">
-        <v>96</v>
-      </c>
-      <c r="B20" s="76" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="79" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" s="72" t="s">
-        <v>46</v>
+      <c r="A20" s="76" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="83" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="83" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="74" t="s">
+        <v>2</v>
       </c>
       <c r="E20" s="28">
         <v>1</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="55.5" customHeight="1">
-      <c r="A21" s="81"/>
-      <c r="B21" s="78"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="82"/>
+      <c r="A21" s="77"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="75"/>
       <c r="E21" s="36">
         <v>2</v>
       </c>
       <c r="F21" s="37" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="G21" s="38" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2826,13 +2824,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="D13:D14"/>
@@ -2842,6 +2833,13 @@
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
@@ -2860,10 +2858,10 @@
   <dimension ref="B1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="57.28515625" customWidth="1"/>
   </cols>
@@ -2871,7 +2869,7 @@
     <row r="1" spans="2:4" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:4">
       <c r="B2" s="30" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="C2" s="41">
         <v>1</v>
@@ -2880,40 +2878,40 @@
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="30" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="D3" s="44"/>
     </row>
     <row r="4" spans="2:4" ht="60">
       <c r="B4" s="30" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="D4" s="44"/>
     </row>
     <row r="5" spans="2:4" ht="45">
       <c r="B5" s="30" t="s">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="D5" s="44"/>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="30" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>93</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -2921,10 +2919,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="D7" s="44" t="s">
-        <v>94</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:4">
@@ -2932,10 +2930,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>94</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="15.75" thickBot="1">
@@ -2943,10 +2941,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="46" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
